--- a/Lab3/Lab3_Uzduotys.xlsx
+++ b/Lab3/Lab3_Uzduotys.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulius\Desktop\Lab3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Java\Java_laboratoriniai\Lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827DBD8B-37C8-4D31-BA28-EBEB1958A9AD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5C6C69-354B-4791-93F4-0E7D11D0FF72}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19224" windowHeight="5640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19230" windowHeight="5640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Studentai" sheetId="7" r:id="rId1"/>
@@ -1294,7 +1294,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1313,6 +1313,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1327,7 +1339,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1362,20 +1374,31 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1722,19 +1745,19 @@
       <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="11" customWidth="1"/>
     <col min="2" max="2" width="28" style="12" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" style="12" customWidth="1"/>
-    <col min="4" max="6" width="9.109375" style="11"/>
-    <col min="7" max="7" width="9.44140625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" style="11"/>
-    <col min="9" max="9" width="3.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="12" customWidth="1"/>
+    <col min="4" max="6" width="9.140625" style="11"/>
+    <col min="7" max="7" width="9.42578125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="11"/>
+    <col min="9" max="9" width="3.28515625" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>5</v>
       </c>
@@ -1760,7 +1783,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1786,7 +1809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -1821,7 +1844,7 @@
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -1856,7 +1879,7 @@
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -1891,7 +1914,7 @@
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -1924,7 +1947,7 @@
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -1959,7 +1982,7 @@
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -1985,7 +2008,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -2011,7 +2034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -2042,7 +2065,7 @@
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -2073,7 +2096,7 @@
       <c r="K11" s="15"/>
       <c r="L11" s="14"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -2104,7 +2127,7 @@
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -2130,7 +2153,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -2159,7 +2182,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -2200,7 +2223,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -2241,7 +2264,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -2267,7 +2290,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -2293,7 +2316,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -2319,7 +2342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -2345,7 +2368,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -2371,7 +2394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -2397,7 +2420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -2423,7 +2446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -2449,7 +2472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -2475,7 +2498,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -2501,7 +2524,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -2527,7 +2550,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -2553,7 +2576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -2579,7 +2602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -2605,7 +2628,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>30</v>
       </c>
@@ -2631,7 +2654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>31</v>
       </c>
@@ -2657,7 +2680,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>32</v>
       </c>
@@ -2683,7 +2706,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>33</v>
       </c>
@@ -2709,7 +2732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>34</v>
       </c>
@@ -2735,7 +2758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>35</v>
       </c>
@@ -2761,7 +2784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>36</v>
       </c>
@@ -2787,7 +2810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>37</v>
       </c>
@@ -2813,7 +2836,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>38</v>
       </c>
@@ -2839,7 +2862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
         <v>39</v>
       </c>
@@ -2865,7 +2888,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>40</v>
       </c>
@@ -2891,7 +2914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>41</v>
       </c>
@@ -2917,7 +2940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <v>42</v>
       </c>
@@ -2943,7 +2966,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
         <v>43</v>
       </c>
@@ -2969,7 +2992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
         <v>44</v>
       </c>
@@ -2995,7 +3018,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
         <v>45</v>
       </c>
@@ -3021,7 +3044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
         <v>46</v>
       </c>
@@ -3047,7 +3070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
         <v>47</v>
       </c>
@@ -3073,7 +3096,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
         <v>48</v>
       </c>
@@ -3099,7 +3122,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
         <v>49</v>
       </c>
@@ -3125,7 +3148,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
         <v>50</v>
       </c>
@@ -3151,7 +3174,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="11">
         <v>51</v>
       </c>
@@ -3177,7 +3200,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="11">
         <v>52</v>
       </c>
@@ -3203,7 +3226,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
         <v>53</v>
       </c>
@@ -3229,7 +3252,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="11">
         <v>54</v>
       </c>
@@ -3255,7 +3278,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="11">
         <v>55</v>
       </c>
@@ -3281,7 +3304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="11">
         <v>56</v>
       </c>
@@ -3307,7 +3330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="11">
         <v>57</v>
       </c>
@@ -3333,7 +3356,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="11">
         <v>58</v>
       </c>
@@ -3359,7 +3382,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="11">
         <v>59</v>
       </c>
@@ -3385,7 +3408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="11">
         <v>60</v>
       </c>
@@ -3411,7 +3434,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="11">
         <v>61</v>
       </c>
@@ -3437,7 +3460,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="11">
         <v>62</v>
       </c>
@@ -3463,7 +3486,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="11">
         <v>63</v>
       </c>
@@ -3489,7 +3512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="11">
         <v>64</v>
       </c>
@@ -3515,7 +3538,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
         <v>65</v>
       </c>
@@ -3541,7 +3564,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="11">
         <v>66</v>
       </c>
@@ -3567,7 +3590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="11">
         <v>67</v>
       </c>
@@ -3593,7 +3616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="11">
         <v>68</v>
       </c>
@@ -3619,7 +3642,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="11">
         <v>69</v>
       </c>
@@ -3645,7 +3668,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="11">
         <v>70</v>
       </c>
@@ -3671,7 +3694,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="11">
         <v>71</v>
       </c>
@@ -3697,7 +3720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="11">
         <v>72</v>
       </c>
@@ -3723,7 +3746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="11">
         <v>73</v>
       </c>
@@ -3749,7 +3772,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="11">
         <v>74</v>
       </c>
@@ -3775,7 +3798,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="11">
         <v>75</v>
       </c>
@@ -3801,7 +3824,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="11">
         <v>76</v>
       </c>
@@ -3827,7 +3850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="11">
         <v>77</v>
       </c>
@@ -3853,7 +3876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="11">
         <v>78</v>
       </c>
@@ -3879,7 +3902,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="11">
         <v>79</v>
       </c>
@@ -3905,7 +3928,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="11">
         <v>80</v>
       </c>
@@ -3931,7 +3954,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="11">
         <v>81</v>
       </c>
@@ -3957,7 +3980,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="11">
         <v>82</v>
       </c>
@@ -3983,7 +4006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="11">
         <v>83</v>
       </c>
@@ -4009,7 +4032,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="11">
         <v>84</v>
       </c>
@@ -4035,7 +4058,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="11">
         <v>85</v>
       </c>
@@ -4061,7 +4084,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="11">
         <v>86</v>
       </c>
@@ -4087,7 +4110,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="11">
         <v>87</v>
       </c>
@@ -4113,7 +4136,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="11">
         <v>88</v>
       </c>
@@ -4139,7 +4162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="11">
         <v>89</v>
       </c>
@@ -4165,7 +4188,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="11">
         <v>90</v>
       </c>
@@ -4191,7 +4214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="11">
         <v>91</v>
       </c>
@@ -4217,7 +4240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="11">
         <v>92</v>
       </c>
@@ -4243,7 +4266,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="11">
         <v>93</v>
       </c>
@@ -4269,7 +4292,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="11">
         <v>94</v>
       </c>
@@ -4295,7 +4318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="11">
         <v>95</v>
       </c>
@@ -4321,7 +4344,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="11">
         <v>96</v>
       </c>
@@ -4347,7 +4370,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="11">
         <v>97</v>
       </c>
@@ -4373,7 +4396,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="11">
         <v>98</v>
       </c>
@@ -4399,7 +4422,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="11">
         <v>99</v>
       </c>
@@ -4425,7 +4448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="11">
         <v>100</v>
       </c>
@@ -4451,7 +4474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="11">
         <v>101</v>
       </c>
@@ -4477,7 +4500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="11">
         <v>102</v>
       </c>
@@ -4503,7 +4526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="11">
         <v>103</v>
       </c>
@@ -4529,7 +4552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="11">
         <v>104</v>
       </c>
@@ -4555,7 +4578,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="11">
         <v>105</v>
       </c>
@@ -4581,7 +4604,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="11">
         <v>106</v>
       </c>
@@ -4607,7 +4630,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="11">
         <v>107</v>
       </c>
@@ -4633,7 +4656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="11">
         <v>108</v>
       </c>
@@ -4659,7 +4682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="11">
         <v>109</v>
       </c>
@@ -4685,7 +4708,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="11">
         <v>110</v>
       </c>
@@ -4711,7 +4734,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="11">
         <v>111</v>
       </c>
@@ -4737,7 +4760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="11">
         <v>112</v>
       </c>
@@ -4763,7 +4786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="11">
         <v>113</v>
       </c>
@@ -4789,7 +4812,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="11">
         <v>114</v>
       </c>
@@ -4815,7 +4838,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="11">
         <v>115</v>
       </c>
@@ -4841,7 +4864,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="11">
         <v>116</v>
       </c>
@@ -4867,7 +4890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="11">
         <v>117</v>
       </c>
@@ -4893,7 +4916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="11">
         <v>118</v>
       </c>
@@ -4919,7 +4942,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="11">
         <v>119</v>
       </c>
@@ -4945,7 +4968,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="11">
         <v>120</v>
       </c>
@@ -4971,7 +4994,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="11">
         <v>121</v>
       </c>
@@ -4997,7 +5020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="11">
         <v>122</v>
       </c>
@@ -5023,7 +5046,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="11">
         <v>123</v>
       </c>
@@ -5049,7 +5072,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="11">
         <v>124</v>
       </c>
@@ -5075,7 +5098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="11">
         <v>125</v>
       </c>
@@ -5101,7 +5124,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="11">
         <v>126</v>
       </c>
@@ -5127,7 +5150,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="11">
         <v>127</v>
       </c>
@@ -5153,7 +5176,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="11">
         <v>128</v>
       </c>
@@ -5179,7 +5202,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="11">
         <v>129</v>
       </c>
@@ -5205,7 +5228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="11">
         <v>130</v>
       </c>
@@ -5231,7 +5254,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="11">
         <v>131</v>
       </c>
@@ -5257,7 +5280,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="11">
         <v>132</v>
       </c>
@@ -5283,7 +5306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="11">
         <v>133</v>
       </c>
@@ -5309,7 +5332,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="11">
         <v>134</v>
       </c>
@@ -5335,7 +5358,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="11">
         <v>135</v>
       </c>
@@ -5361,7 +5384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="11">
         <v>136</v>
       </c>
@@ -5387,7 +5410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="11">
         <v>137</v>
       </c>
@@ -5413,7 +5436,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="11">
         <v>138</v>
       </c>
@@ -5439,7 +5462,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="11">
         <v>139</v>
       </c>
@@ -5465,7 +5488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="11">
         <v>140</v>
       </c>
@@ -5491,7 +5514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="11">
         <v>141</v>
       </c>
@@ -5517,7 +5540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="11">
         <v>142</v>
       </c>
@@ -5543,7 +5566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="11">
         <v>143</v>
       </c>
@@ -5569,7 +5592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="11">
         <v>144</v>
       </c>
@@ -5595,7 +5618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="11">
         <v>145</v>
       </c>
@@ -5621,7 +5644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="11">
         <v>146</v>
       </c>
@@ -5647,7 +5670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="11">
         <v>147</v>
       </c>
@@ -5673,7 +5696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="11">
         <v>148</v>
       </c>
@@ -5699,7 +5722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="11">
         <v>149</v>
       </c>
@@ -5725,7 +5748,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="11">
         <v>150</v>
       </c>
@@ -5751,7 +5774,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="11">
         <v>151</v>
       </c>
@@ -5777,7 +5800,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="11">
         <v>152</v>
       </c>
@@ -5803,7 +5826,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="11">
         <v>153</v>
       </c>
@@ -5829,7 +5852,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="11">
         <v>154</v>
       </c>
@@ -5855,7 +5878,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="11">
         <v>155</v>
       </c>
@@ -5881,7 +5904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="11">
         <v>156</v>
       </c>
@@ -5907,7 +5930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="11">
         <v>157</v>
       </c>
@@ -5933,7 +5956,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="11">
         <v>158</v>
       </c>
@@ -5959,7 +5982,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="11">
         <v>159</v>
       </c>
@@ -5985,7 +6008,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="11">
         <v>160</v>
       </c>
@@ -6011,7 +6034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="11">
         <v>161</v>
       </c>
@@ -6037,7 +6060,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="11">
         <v>162</v>
       </c>
@@ -6063,7 +6086,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="11">
         <v>163</v>
       </c>
@@ -6089,7 +6112,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="11">
         <v>164</v>
       </c>
@@ -6115,7 +6138,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="11">
         <v>165</v>
       </c>
@@ -6141,7 +6164,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="11">
         <v>166</v>
       </c>
@@ -6167,7 +6190,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="11">
         <v>167</v>
       </c>
@@ -6193,7 +6216,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="11">
         <v>168</v>
       </c>
@@ -6219,7 +6242,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="11">
         <v>169</v>
       </c>
@@ -6245,7 +6268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="11">
         <v>170</v>
       </c>
@@ -6271,7 +6294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="11">
         <v>171</v>
       </c>
@@ -6297,7 +6320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="11">
         <v>172</v>
       </c>
@@ -6323,7 +6346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="11">
         <v>173</v>
       </c>
@@ -6349,7 +6372,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="11">
         <v>174</v>
       </c>
@@ -6375,7 +6398,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="11">
         <v>175</v>
       </c>
@@ -6401,7 +6424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="11">
         <v>176</v>
       </c>
@@ -6427,7 +6450,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="11">
         <v>177</v>
       </c>
@@ -6453,7 +6476,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="11">
         <v>178</v>
       </c>
@@ -6479,7 +6502,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="11">
         <v>179</v>
       </c>
@@ -6505,7 +6528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="11">
         <v>180</v>
       </c>
@@ -6531,7 +6554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="11">
         <v>181</v>
       </c>
@@ -6557,7 +6580,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="11">
         <v>182</v>
       </c>
@@ -6583,7 +6606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="11">
         <v>183</v>
       </c>
@@ -6609,7 +6632,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="11">
         <v>184</v>
       </c>
@@ -6635,7 +6658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="11">
         <v>185</v>
       </c>
@@ -6661,7 +6684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="11">
         <v>186</v>
       </c>
@@ -6687,7 +6710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="11">
         <v>187</v>
       </c>
@@ -6713,7 +6736,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="11">
         <v>188</v>
       </c>
@@ -6739,7 +6762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="11">
         <v>189</v>
       </c>
@@ -6765,7 +6788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="11">
         <v>190</v>
       </c>
@@ -6791,7 +6814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="11">
         <v>191</v>
       </c>
@@ -6817,7 +6840,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="11">
         <v>192</v>
       </c>
@@ -6843,7 +6866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="11">
         <v>193</v>
       </c>
@@ -6869,7 +6892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="11">
         <v>194</v>
       </c>
@@ -6895,7 +6918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="11">
         <v>195</v>
       </c>
@@ -6921,7 +6944,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="11">
         <v>196</v>
       </c>
@@ -6947,7 +6970,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="11">
         <v>197</v>
       </c>
@@ -6973,7 +6996,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="11">
         <v>198</v>
       </c>
@@ -6999,7 +7022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="11">
         <v>199</v>
       </c>
@@ -7025,7 +7048,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="11">
         <v>200</v>
       </c>
@@ -7051,7 +7074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="11">
         <v>201</v>
       </c>
@@ -7077,7 +7100,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="11">
         <v>202</v>
       </c>
@@ -7103,7 +7126,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="11">
         <v>203</v>
       </c>
@@ -7129,7 +7152,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="11">
         <v>204</v>
       </c>
@@ -7155,7 +7178,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="11">
         <v>205</v>
       </c>
@@ -7181,7 +7204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="11">
         <v>206</v>
       </c>
@@ -7207,7 +7230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="11">
         <v>207</v>
       </c>
@@ -7233,7 +7256,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="11">
         <v>208</v>
       </c>
@@ -7259,7 +7282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="11">
         <v>209</v>
       </c>
@@ -7285,7 +7308,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="11">
         <v>210</v>
       </c>
@@ -7311,7 +7334,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="11">
         <v>211</v>
       </c>
@@ -7337,7 +7360,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="11">
         <v>212</v>
       </c>
@@ -7363,7 +7386,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="11">
         <v>213</v>
       </c>
@@ -7389,7 +7412,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="11">
         <v>214</v>
       </c>
@@ -7415,7 +7438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="11">
         <v>215</v>
       </c>
@@ -7441,7 +7464,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="11">
         <v>216</v>
       </c>
@@ -7467,7 +7490,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="11">
         <v>217</v>
       </c>
@@ -7493,7 +7516,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="11">
         <v>218</v>
       </c>
@@ -7519,7 +7542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="11">
         <v>219</v>
       </c>
@@ -7545,7 +7568,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="11">
         <v>220</v>
       </c>
@@ -7571,7 +7594,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="11">
         <v>221</v>
       </c>
@@ -7597,7 +7620,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="11">
         <v>222</v>
       </c>
@@ -7623,7 +7646,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="11">
         <v>223</v>
       </c>
@@ -7649,7 +7672,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="11">
         <v>224</v>
       </c>
@@ -7675,7 +7698,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="11">
         <v>225</v>
       </c>
@@ -7701,7 +7724,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="11">
         <v>226</v>
       </c>
@@ -7727,7 +7750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="11">
         <v>227</v>
       </c>
@@ -7753,7 +7776,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="11">
         <v>228</v>
       </c>
@@ -7779,7 +7802,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="11">
         <v>229</v>
       </c>
@@ -7805,7 +7828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="11">
         <v>230</v>
       </c>
@@ -7831,7 +7854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="11">
         <v>231</v>
       </c>
@@ -7857,7 +7880,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="11">
         <v>232</v>
       </c>
@@ -7883,7 +7906,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="11">
         <v>233</v>
       </c>
@@ -7909,7 +7932,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="11">
         <v>234</v>
       </c>
@@ -7935,7 +7958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="11">
         <v>235</v>
       </c>
@@ -7961,7 +7984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="11">
         <v>236</v>
       </c>
@@ -7987,7 +8010,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="11">
         <v>237</v>
       </c>
@@ -8013,7 +8036,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="11">
         <v>238</v>
       </c>
@@ -8039,7 +8062,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="11">
         <v>239</v>
       </c>
@@ -8065,7 +8088,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="11">
         <v>240</v>
       </c>
@@ -8091,7 +8114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="11">
         <v>241</v>
       </c>
@@ -8117,7 +8140,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="11">
         <v>242</v>
       </c>
@@ -8143,7 +8166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="11">
         <v>243</v>
       </c>
@@ -8169,7 +8192,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="11">
         <v>244</v>
       </c>
@@ -8195,7 +8218,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="11">
         <v>245</v>
       </c>
@@ -8221,7 +8244,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="11">
         <v>246</v>
       </c>
@@ -8247,7 +8270,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="11">
         <v>247</v>
       </c>
@@ -8273,7 +8296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="11">
         <v>248</v>
       </c>
@@ -8299,7 +8322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="11">
         <v>249</v>
       </c>
@@ -8325,7 +8348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="11">
         <v>250</v>
       </c>
@@ -8351,7 +8374,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="11">
         <v>251</v>
       </c>
@@ -8377,7 +8400,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="11">
         <v>252</v>
       </c>
@@ -8403,7 +8426,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="11">
         <v>253</v>
       </c>
@@ -8429,7 +8452,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="11">
         <v>254</v>
       </c>
@@ -8455,7 +8478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="11">
         <v>255</v>
       </c>
@@ -8481,7 +8504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="11">
         <v>256</v>
       </c>
@@ -8507,7 +8530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="11">
         <v>257</v>
       </c>
@@ -8533,7 +8556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="11">
         <v>258</v>
       </c>
@@ -8559,7 +8582,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="11">
         <v>259</v>
       </c>
@@ -8585,7 +8608,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="11">
         <v>260</v>
       </c>
@@ -8611,7 +8634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="11">
         <v>261</v>
       </c>
@@ -8637,7 +8660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="11">
         <v>262</v>
       </c>
@@ -8663,7 +8686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="11">
         <v>263</v>
       </c>
@@ -8689,7 +8712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="11">
         <v>264</v>
       </c>
@@ -8715,7 +8738,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="11">
         <v>265</v>
       </c>
@@ -8741,7 +8764,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="11">
         <v>266</v>
       </c>
@@ -8767,7 +8790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="11">
         <v>267</v>
       </c>
@@ -8793,7 +8816,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="11">
         <v>268</v>
       </c>
@@ -8819,7 +8842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="11">
         <v>269</v>
       </c>
@@ -8845,7 +8868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="11">
         <v>270</v>
       </c>
@@ -8871,7 +8894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="11">
         <v>271</v>
       </c>
@@ -8897,7 +8920,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="11">
         <v>272</v>
       </c>
@@ -8923,7 +8946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="11">
         <v>273</v>
       </c>
@@ -8949,7 +8972,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="11">
         <v>274</v>
       </c>
@@ -8975,7 +8998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="11">
         <v>275</v>
       </c>
@@ -9001,7 +9024,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="11">
         <v>276</v>
       </c>
@@ -9027,7 +9050,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="11">
         <v>277</v>
       </c>
@@ -9053,7 +9076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="11">
         <v>278</v>
       </c>
@@ -9079,7 +9102,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="11">
         <v>279</v>
       </c>
@@ -9105,7 +9128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="11">
         <v>280</v>
       </c>
@@ -9131,7 +9154,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="11">
         <v>281</v>
       </c>
@@ -9157,7 +9180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="11">
         <v>282</v>
       </c>
@@ -9183,7 +9206,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="11">
         <v>283</v>
       </c>
@@ -9209,7 +9232,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="11">
         <v>284</v>
       </c>
@@ -9235,7 +9258,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="11">
         <v>285</v>
       </c>
@@ -9261,7 +9284,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="11">
         <v>286</v>
       </c>
@@ -9287,7 +9310,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="11">
         <v>287</v>
       </c>
@@ -9313,7 +9336,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="11">
         <v>288</v>
       </c>
@@ -9339,7 +9362,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="11">
         <v>289</v>
       </c>
@@ -9365,7 +9388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="11">
         <v>290</v>
       </c>
@@ -9391,7 +9414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="11">
         <v>291</v>
       </c>
@@ -9417,7 +9440,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="11">
         <v>292</v>
       </c>
@@ -9443,7 +9466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="11">
         <v>293</v>
       </c>
@@ -9469,7 +9492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="11">
         <v>294</v>
       </c>
@@ -9495,7 +9518,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="11">
         <v>295</v>
       </c>
@@ -9521,7 +9544,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="11">
         <v>296</v>
       </c>
@@ -9547,7 +9570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="11">
         <v>297</v>
       </c>
@@ -9573,7 +9596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="11">
         <v>298</v>
       </c>
@@ -9599,7 +9622,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="11">
         <v>299</v>
       </c>
@@ -9625,7 +9648,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="11">
         <v>300</v>
       </c>
@@ -9651,7 +9674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" s="11">
         <v>301</v>
       </c>
@@ -9677,7 +9700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="11">
         <v>302</v>
       </c>
@@ -9703,7 +9726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="11">
         <v>303</v>
       </c>
@@ -9729,7 +9752,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" s="11">
         <v>304</v>
       </c>
@@ -9755,7 +9778,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" s="11">
         <v>305</v>
       </c>
@@ -9781,7 +9804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" s="11">
         <v>306</v>
       </c>
@@ -9807,7 +9830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" s="11">
         <v>307</v>
       </c>
@@ -9833,7 +9856,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" s="11">
         <v>308</v>
       </c>
@@ -9859,7 +9882,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" s="11">
         <v>309</v>
       </c>
@@ -9885,7 +9908,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" s="11">
         <v>310</v>
       </c>
@@ -9911,225 +9934,225 @@
         <v>2</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" s="11">
         <v>311</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" s="11">
         <v>312</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" s="11">
         <v>313</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" s="11">
         <v>314</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" s="11">
         <v>315</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" s="11">
         <v>316</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" s="11">
         <v>317</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" s="11">
         <v>318</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" s="11">
         <v>319</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" s="11">
         <v>320</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" s="11">
         <v>321</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="11">
         <v>322</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" s="11">
         <v>323</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" s="11">
         <v>324</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" s="11">
         <v>325</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" s="11">
         <v>326</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" s="11">
         <v>327</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" s="11">
         <v>328</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" s="11">
         <v>329</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="11">
         <v>330</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="11">
         <v>331</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" s="11">
         <v>332</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" s="11">
         <v>333</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" s="11">
         <v>334</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" s="11">
         <v>335</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="11">
         <v>336</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="11">
         <v>337</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="11">
         <v>338</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="11">
         <v>339</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="11">
         <v>340</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="11">
         <v>341</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="11">
         <v>342</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="11">
         <v>343</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="11">
         <v>344</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="11">
         <v>345</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="11">
         <v>346</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="11">
         <v>347</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="11">
         <v>348</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="11">
         <v>349</v>
       </c>
       <c r="B350" s="13"/>
       <c r="C350" s="13"/>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="11">
         <v>350</v>
       </c>
       <c r="B351" s="13"/>
       <c r="C351" s="13"/>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="11">
         <v>351</v>
       </c>
       <c r="B352" s="13"/>
       <c r="C352" s="13"/>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="11">
         <v>352</v>
       </c>
       <c r="B353" s="13"/>
       <c r="C353" s="13"/>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="11">
         <v>353</v>
       </c>
@@ -10149,22 +10172,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.88671875" customWidth="1"/>
-    <col min="3" max="3" width="133.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" customWidth="1"/>
-    <col min="6" max="6" width="38.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="133.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="38.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -10175,26 +10198,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="20">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="25">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="23" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="25"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="20">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="26">
         <v>2</v>
       </c>
       <c r="B4" s="21" t="s">
@@ -10204,15 +10227,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26"/>
       <c r="B5" s="21"/>
       <c r="C5" s="23" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="20">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="26">
         <v>3</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -10222,15 +10245,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
       <c r="B7" s="21"/>
       <c r="C7" s="23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="20">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="26">
         <v>4</v>
       </c>
       <c r="B8" s="21" t="s">
@@ -10240,15 +10263,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="26"/>
       <c r="B9" s="21"/>
       <c r="C9" s="23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="19">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="27">
         <v>5</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -10258,15 +10281,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="27"/>
       <c r="B11" s="7"/>
       <c r="C11" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="19">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="27">
         <v>6</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -10276,15 +10299,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="27"/>
       <c r="B13" s="7"/>
       <c r="C13" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="19">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="27">
         <v>7</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -10294,15 +10317,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="27"/>
       <c r="B15" s="7"/>
       <c r="C15" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="19">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="27">
         <v>8</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -10312,15 +10335,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="27"/>
       <c r="B17" s="7"/>
       <c r="C17" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="19">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="27">
         <v>9</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -10330,15 +10353,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="27"/>
       <c r="B19" s="7"/>
       <c r="C19" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="19">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="27">
         <v>10</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -10348,70 +10371,70 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="27"/>
       <c r="B21" s="7"/>
       <c r="C21" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="20">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="25">
         <v>11</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="19" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="20"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="25"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="18"/>
-    </row>
-    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="18"/>
-    </row>
-    <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="18"/>
-    </row>
-    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="18"/>
-    </row>
-    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="18"/>
-    </row>
-    <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="18"/>
-    </row>
-    <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="18"/>
-    </row>
-    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="18"/>
+    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="24"/>
+    </row>
+    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="24"/>
+    </row>
+    <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="24"/>
+    </row>
+    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="24"/>
+    </row>
+    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="24"/>
+    </row>
+    <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="24"/>
+    </row>
+    <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="24"/>
+    </row>
+    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -10438,21 +10461,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:E12"/>
+  <dimension ref="A2:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="3" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -10460,7 +10483,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -10477,7 +10500,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -10494,7 +10517,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -10511,7 +10534,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -10528,7 +10551,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -10545,41 +10568,44 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="28">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C8" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="28">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C9" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -10596,7 +10622,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -10613,7 +10639,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
